--- a/ExcelReader tests/Test files/Test empty only headers and description.xlsx
+++ b/ExcelReader tests/Test files/Test empty only headers and description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.ivanov\source\repos\Base-CSharp\ExcelReader tests\Test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F87C5-EE0A-43FC-B1F7-802432B0F94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F83E3-2D9D-44D4-9B84-F98F35301FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
